--- a/working_files/filelist.xlsx
+++ b/working_files/filelist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/perrault/crperrault/working_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B23F5F1-0C98-DE40-B08F-05A355824652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CF4B15E3-79A7-CD4D-B843-E8A70CF7C764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30980" yWindow="6060" windowWidth="27640" windowHeight="16580" xr2:uid="{BF85CFCF-F181-9544-9DAE-0A8E10C445BB}"/>
+    <workbookView xWindow="760" yWindow="1180" windowWidth="27640" windowHeight="16580" xr2:uid="{BF85CFCF-F181-9544-9DAE-0A8E10C445BB}"/>
   </bookViews>
   <sheets>
     <sheet name="filelist" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Agathe Perrault.pdf</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>Charles Perrault (Wikipedia)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Charles-Hubert_Perrault</t>
   </si>
   <si>
     <t>New England descendants of PA de Gaspe v6.pdf</t>
@@ -1028,7 +1025,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C2" sqref="C2:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1062,8 +1059,8 @@
         <v>21</v>
       </c>
       <c r="D2" t="str">
-        <f>"articles/"&amp;B2</f>
-        <v>articles/James Stuart illegitimate children.pdf</v>
+        <f>"articles/text/"&amp;B2</f>
+        <v>articles/text/James Stuart illegitimate children.pdf</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1077,8 +1074,8 @@
         <v>22</v>
       </c>
       <c r="D3" t="str">
-        <f>"articles/"&amp;B3</f>
-        <v>articles/The Family of Elizabeth Robertson.pdf</v>
+        <f t="shared" ref="D3:D20" si="0">"articles/text/"&amp;B3</f>
+        <v>articles/text/The Family of Elizabeth Robertson.pdf</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1092,8 +1089,8 @@
         <v>25</v>
       </c>
       <c r="D4" t="str">
-        <f>"articles/"&amp;B4</f>
-        <v>articles/Agathe Perrault.pdf</v>
+        <f t="shared" si="0"/>
+        <v>articles/text/Agathe Perrault.pdf</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1107,8 +1104,8 @@
         <v>23</v>
       </c>
       <c r="D5" t="str">
-        <f>"articles/"&amp;B5</f>
-        <v>articles/Fred Benington.pdf</v>
+        <f t="shared" si="0"/>
+        <v>articles/text/Fred Benington.pdf</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1121,8 +1118,9 @@
       <c r="C6" t="s">
         <v>40</v>
       </c>
-      <c r="D6" t="s">
-        <v>41</v>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>articles/text/Charles Perrault Wikipedia.docx</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1136,8 +1134,8 @@
         <v>24</v>
       </c>
       <c r="D7" t="str">
-        <f>"articles/"&amp;B7</f>
-        <v>articles/Families without Borders.pdf</v>
+        <f t="shared" si="0"/>
+        <v>articles/text/Families without Borders.pdf</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1151,8 +1149,8 @@
         <v>26</v>
       </c>
       <c r="D8" t="str">
-        <f>"articles/"&amp;B8</f>
-        <v>articles/Bailly.pdf</v>
+        <f t="shared" si="0"/>
+        <v>articles/text/Bailly.pdf</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1166,8 +1164,8 @@
         <v>27</v>
       </c>
       <c r="D9" t="str">
-        <f>"articles/"&amp;B9</f>
-        <v>articles/Derniers_Obert.pdf</v>
+        <f t="shared" si="0"/>
+        <v>articles/text/Derniers_Obert.pdf</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1175,14 +1173,14 @@
         <v>2017</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
       </c>
       <c r="D10" t="str">
-        <f>"articles/"&amp;B10</f>
-        <v>articles/New England descendants of PA de Gaspe v6.pdf</v>
+        <f t="shared" si="0"/>
+        <v>articles/text/New England descendants of PA de Gaspe v6.pdf</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1196,8 +1194,8 @@
         <v>28</v>
       </c>
       <c r="D11" t="str">
-        <f>"articles/"&amp;B11</f>
-        <v>articles/Gilpin Thomas 2014.pdf</v>
+        <f t="shared" si="0"/>
+        <v>articles/text/Gilpin Thomas 2014.pdf</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1211,8 +1209,8 @@
         <v>34</v>
       </c>
       <c r="D12" t="str">
-        <f>"articles/"&amp;B12</f>
-        <v>articles/JANE SMITH 2nd FAMILY.pdf</v>
+        <f t="shared" si="0"/>
+        <v>articles/text/JANE SMITH 2nd FAMILY.pdf</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1226,8 +1224,8 @@
         <v>38</v>
       </c>
       <c r="D13" t="str">
-        <f>"articles/"&amp;B13</f>
-        <v>articles/SJH posting v5 151125.docx</v>
+        <f t="shared" si="0"/>
+        <v>articles/text/SJH posting v5 151125.docx</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1241,8 +1239,8 @@
         <v>29</v>
       </c>
       <c r="D14" t="str">
-        <f>"articles/"&amp;B14</f>
-        <v>articles/British and Benington.pdf</v>
+        <f t="shared" si="0"/>
+        <v>articles/text/British and Benington.pdf</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1256,8 +1254,8 @@
         <v>30</v>
       </c>
       <c r="D15" t="str">
-        <f>"articles/"&amp;B15</f>
-        <v>articles/Notes on the Beningtons 2010.pdf</v>
+        <f t="shared" si="0"/>
+        <v>articles/text/Notes on the Beningtons 2010.pdf</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1271,8 +1269,8 @@
         <v>31</v>
       </c>
       <c r="D16" t="str">
-        <f>"articles/"&amp;B16</f>
-        <v>articles/William Benington and his Children.pdf</v>
+        <f t="shared" si="0"/>
+        <v>articles/text/William Benington and his Children.pdf</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1286,8 +1284,8 @@
         <v>32</v>
       </c>
       <c r="D17" t="str">
-        <f>"articles/"&amp;B17</f>
-        <v>articles/MargueriteDumoulin.pdf</v>
+        <f t="shared" si="0"/>
+        <v>articles/text/MargueriteDumoulin.pdf</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1301,8 +1299,8 @@
         <v>33</v>
       </c>
       <c r="D18" t="str">
-        <f>"articles/"&amp;B18</f>
-        <v>articles/JEDumoulin-MSGCF.pdf</v>
+        <f t="shared" si="0"/>
+        <v>articles/text/JEDumoulin-MSGCF.pdf</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1316,8 +1314,8 @@
         <v>35</v>
       </c>
       <c r="D19" t="str">
-        <f>"articles/"&amp;B19</f>
-        <v>articles/MG004-130106-rev250406.pdf</v>
+        <f t="shared" si="0"/>
+        <v>articles/text/MG004-130106-rev250406.pdf</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1331,8 +1329,8 @@
         <v>37</v>
       </c>
       <c r="D20" t="str">
-        <f>"articles/"&amp;B20</f>
-        <v>articles/Patriotes.pdf</v>
+        <f t="shared" si="0"/>
+        <v>articles/text/Patriotes.pdf</v>
       </c>
     </row>
   </sheetData>
@@ -1342,5 +1340,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/working_files/filelist.xlsx
+++ b/working_files/filelist.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/perrault/crperrault/working_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CF4B15E3-79A7-CD4D-B843-E8A70CF7C764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C684AD-29E6-A542-BED5-E70360ECC369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="1180" windowWidth="27640" windowHeight="16580" xr2:uid="{BF85CFCF-F181-9544-9DAE-0A8E10C445BB}"/>
+    <workbookView minimized="1" xWindow="37520" yWindow="3580" windowWidth="27640" windowHeight="16580" xr2:uid="{BF85CFCF-F181-9544-9DAE-0A8E10C445BB}"/>
   </bookViews>
   <sheets>
     <sheet name="filelist" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">filelist!$A$1:$D$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">filelist!$A$1:$E$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Agathe Perrault.pdf</t>
   </si>
@@ -162,13 +162,76 @@
   </si>
   <si>
     <t>New England descendants of PA de Gaspe v6.pdf</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>James_Stuart_illegitimate_children</t>
+  </si>
+  <si>
+    <t>The_Family_of_Elizabeth_Robertson</t>
+  </si>
+  <si>
+    <t>Agathe_Perrault</t>
+  </si>
+  <si>
+    <t>Fred_Benington</t>
+  </si>
+  <si>
+    <t>Charles_Perrault_Wikipedia</t>
+  </si>
+  <si>
+    <t>Families_without_Borders</t>
+  </si>
+  <si>
+    <t>Bailly</t>
+  </si>
+  <si>
+    <t>Derniers_Obert</t>
+  </si>
+  <si>
+    <t>Gilpin_Thomas_2014</t>
+  </si>
+  <si>
+    <t>JANE_SMITH_2nd_FAMILY</t>
+  </si>
+  <si>
+    <t>SJH_posting_v5_151125</t>
+  </si>
+  <si>
+    <t>British_and_Benington</t>
+  </si>
+  <si>
+    <t>Notes_on_the_Beningtons_2010</t>
+  </si>
+  <si>
+    <t>William_Benington_and_his_Children</t>
+  </si>
+  <si>
+    <t>MargueriteDumoulin</t>
+  </si>
+  <si>
+    <t>JEDumoulin_MSGCF</t>
+  </si>
+  <si>
+    <t>MG004_130106_rev250406</t>
+  </si>
+  <si>
+    <t>Patriotes</t>
+  </si>
+  <si>
+    <t>New_England_descendants_of_PA_de_Gaspe_v6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1022,19 +1085,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD154CE-370B-2147-ADE9-7B879F7973C6}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D20"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" customWidth="1"/>
+    <col min="3" max="4" width="33.1640625" customWidth="1"/>
+    <col min="5" max="5" width="32.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1045,10 +1109,16 @@
         <v>20</v>
       </c>
       <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>2025</v>
       </c>
@@ -1058,12 +1128,19 @@
       <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="str">
         <f>"articles/text/"&amp;B2</f>
         <v>articles/text/James Stuart illegitimate children.pdf</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F2" t="str">
+        <f>"articles/text/"&amp;C2</f>
+        <v>articles/text/James Stuart's illegitimate children</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2025</v>
       </c>
@@ -1073,12 +1150,15 @@
       <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D20" si="0">"articles/text/"&amp;B3</f>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E20" si="0">"articles/text/"&amp;B3</f>
         <v>articles/text/The Family of Elizabeth Robertson.pdf</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2023</v>
       </c>
@@ -1088,12 +1168,15 @@
       <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="str">
         <f t="shared" si="0"/>
         <v>articles/text/Agathe Perrault.pdf</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -1103,12 +1186,15 @@
       <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="str">
         <f t="shared" si="0"/>
         <v>articles/text/Fred Benington.pdf</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>2021</v>
       </c>
@@ -1118,12 +1204,15 @@
       <c r="C6" t="s">
         <v>40</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="str">
         <f t="shared" si="0"/>
         <v>articles/text/Charles Perrault Wikipedia.docx</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -1133,12 +1222,15 @@
       <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="str">
         <f t="shared" si="0"/>
         <v>articles/text/Families without Borders.pdf</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -1148,12 +1240,15 @@
       <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="str">
         <f t="shared" si="0"/>
         <v>articles/text/Bailly.pdf</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -1163,12 +1258,15 @@
       <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="str">
         <f t="shared" si="0"/>
         <v>articles/text/Derniers_Obert.pdf</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>2017</v>
       </c>
@@ -1178,12 +1276,15 @@
       <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="str">
         <f t="shared" si="0"/>
         <v>articles/text/New England descendants of PA de Gaspe v6.pdf</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2014</v>
       </c>
@@ -1193,12 +1294,15 @@
       <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="str">
         <f t="shared" si="0"/>
         <v>articles/text/Gilpin Thomas 2014.pdf</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>2013</v>
       </c>
@@ -1208,12 +1312,15 @@
       <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="str">
         <f t="shared" si="0"/>
         <v>articles/text/JANE SMITH 2nd FAMILY.pdf</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>2013</v>
       </c>
@@ -1223,12 +1330,15 @@
       <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="str">
         <f t="shared" si="0"/>
         <v>articles/text/SJH posting v5 151125.docx</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -1238,12 +1348,15 @@
       <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="str">
         <f t="shared" si="0"/>
         <v>articles/text/British and Benington.pdf</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>2011</v>
       </c>
@@ -1253,12 +1366,15 @@
       <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="str">
         <f t="shared" si="0"/>
         <v>articles/text/Notes on the Beningtons 2010.pdf</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>2011</v>
       </c>
@@ -1268,12 +1384,15 @@
       <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="str">
         <f t="shared" si="0"/>
         <v>articles/text/William Benington and his Children.pdf</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>2008</v>
       </c>
@@ -1283,12 +1402,15 @@
       <c r="C17" t="s">
         <v>32</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="str">
         <f t="shared" si="0"/>
         <v>articles/text/MargueriteDumoulin.pdf</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>2005</v>
       </c>
@@ -1298,12 +1420,15 @@
       <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="str">
         <f t="shared" si="0"/>
         <v>articles/text/JEDumoulin-MSGCF.pdf</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>1999</v>
       </c>
@@ -1313,12 +1438,15 @@
       <c r="C19" t="s">
         <v>35</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="str">
         <f t="shared" si="0"/>
         <v>articles/text/MG004-130106-rev250406.pdf</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>1997</v>
       </c>
@@ -1328,14 +1456,17 @@
       <c r="C20" t="s">
         <v>37</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="str">
         <f t="shared" si="0"/>
         <v>articles/text/Patriotes.pdf</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D20" xr:uid="{8FD154CE-370B-2147-ADE9-7B879F7973C6}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D20">
+  <autoFilter ref="A1:E20" xr:uid="{8FD154CE-370B-2147-ADE9-7B879F7973C6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E20">
       <sortCondition descending="1" ref="A1:A20"/>
     </sortState>
   </autoFilter>
